--- a/server/course_24_S_CSE.xlsx
+++ b/server/course_24_S_CSE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="115">
   <si>
     <t>Class Nbr</t>
   </si>
@@ -70,7 +70,7 @@
     <t>C105</t>
   </si>
   <si>
-    <t>Francois Rameau</t>
+    <t>Francois Pameau</t>
   </si>
   <si>
     <t>LAB</t>
@@ -79,7 +79,7 @@
     <t>L90</t>
   </si>
   <si>
-    <t>LABM</t>
+    <t>W</t>
   </si>
   <si>
     <t>Intro to Object-Oriented Programming</t>
@@ -88,199 +88,247 @@
     <t>MW</t>
   </si>
   <si>
+    <t>C103</t>
+  </si>
+  <si>
     <t>Antonino Mione</t>
   </si>
   <si>
     <t>Data Structures</t>
   </si>
   <si>
-    <t>B103</t>
-  </si>
-  <si>
     <t>Byungkon Kang</t>
   </si>
   <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>R90</t>
-  </si>
-  <si>
-    <t>RECW</t>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>C107</t>
   </si>
   <si>
     <t>Foundations of Comp Science</t>
   </si>
   <si>
+    <t>Zhoulai Fu</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Programming Abstractions</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>YoungMin Kwon</t>
+  </si>
+  <si>
+    <t>Systems Fundamentals I</t>
+  </si>
+  <si>
+    <t>Amos Omondi</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Intro to the Theory of Computation</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Partially fulfills: ESI, EXP+, SBS+, STEM+</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>Aruna Balasubramanian</t>
+  </si>
+  <si>
+    <t>Legal, Social, and Ethical Issues in Info Systems</t>
+  </si>
+  <si>
+    <t>CEP, ESI, STAS</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>Fundamentals of Software Development</t>
+  </si>
+  <si>
+    <t>Partially fulfills: ESI, EXP+, SBS+,
+STEM+</t>
+  </si>
+  <si>
     <t>B207</t>
   </si>
   <si>
-    <t>Zhoulai Fu</t>
-  </si>
-  <si>
-    <t>RECTU</t>
-  </si>
-  <si>
-    <t>Programming Abstractions</t>
-  </si>
-  <si>
-    <t>B203</t>
-  </si>
-  <si>
-    <t>RECTH</t>
-  </si>
-  <si>
-    <t>Systems Fundamentals I</t>
-  </si>
-  <si>
-    <t>Amos Omondi</t>
-  </si>
-  <si>
-    <t>RECM</t>
-  </si>
-  <si>
-    <t>Technical Communications</t>
-  </si>
-  <si>
-    <t>SPK; WRTD</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
-    <t>Christopher Houghton</t>
-  </si>
-  <si>
-    <t>Intro to the Theory of Computation</t>
-  </si>
-  <si>
-    <t>B204</t>
-  </si>
-  <si>
-    <t>Compiler Design</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
-    <t>Aruna Balasubramanian</t>
-  </si>
-  <si>
-    <t>Fundamentals of Software Development</t>
-  </si>
-  <si>
-    <t>Partially fulfills:
-ESI, EXP+, SBS+, STEM+</t>
-  </si>
-  <si>
     <t>Systems Fundamentals II</t>
   </si>
   <si>
     <t>Yoon-Seok Yang</t>
   </si>
   <si>
+    <t>Fundamentals of Computer Vision</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>Jihoon Pyoo</t>
+  </si>
+  <si>
+    <t>Fundamentals of Computer Security</t>
+  </si>
+  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
+    <t>Niranjan Balasubramanian</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>Undergrad Teaching Practicum</t>
+  </si>
+  <si>
+    <t>EXP+</t>
+  </si>
+  <si>
+    <t>TUT</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>APPT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Arthur Lee</t>
+  </si>
+  <si>
+    <t>T92</t>
+  </si>
+  <si>
+    <t>T93</t>
+  </si>
+  <si>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>T97</t>
+  </si>
+  <si>
+    <t>T98</t>
+  </si>
+  <si>
+    <t>T99</t>
+  </si>
+  <si>
+    <t>Pesearch in Computer Science</t>
+  </si>
+  <si>
+    <t>0 to 6</t>
+  </si>
+  <si>
+    <t>T91</t>
+  </si>
+  <si>
+    <t>T95</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>A116</t>
+  </si>
+  <si>
+    <t>Special Project in Computer Sc</t>
+  </si>
+  <si>
+    <t>Advanced Project in Computer S</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
     <t>A312</t>
   </si>
   <si>
-    <t>Natural Language Processing</t>
-  </si>
-  <si>
-    <t>B313</t>
-  </si>
-  <si>
-    <t>Niranjan Balasubramanian</t>
-  </si>
-  <si>
-    <t>Analysis of Algorithms</t>
-  </si>
-  <si>
-    <t>Jihoon Ryoo</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>A116</t>
-  </si>
-  <si>
-    <t>Research in Computer Science</t>
-  </si>
-  <si>
-    <t>TUT</t>
-  </si>
-  <si>
-    <t>T92</t>
-  </si>
-  <si>
-    <t>0 to 6</t>
-  </si>
-  <si>
-    <t>APPT</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>T96</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>Fundament of Computer Networks</t>
-  </si>
-  <si>
-    <t>B314</t>
-  </si>
-  <si>
     <t>Seung Soo Park</t>
   </si>
   <si>
-    <t>Logic in Computer Science</t>
-  </si>
-  <si>
-    <t>M.S. Thesis Research</t>
+    <t>Independent Study in Comp Sci</t>
+  </si>
+  <si>
+    <t>1 to 9</t>
+  </si>
+  <si>
+    <t>T94</t>
+  </si>
+  <si>
+    <t>Dennis Wong</t>
+  </si>
+  <si>
+    <t>MS Internship Prog Off-Campus</t>
+  </si>
+  <si>
+    <t>M.S. Thesis Pesearch</t>
   </si>
   <si>
     <t>1 to 12</t>
   </si>
   <si>
-    <t>T94</t>
-  </si>
-  <si>
-    <t>Research in Modern Computer Science</t>
+    <t>Topics in Modern Computer Science</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Seminar in Databases</t>
   </si>
   <si>
     <t>SEM</t>
   </si>
   <si>
-    <t>S91</t>
-  </si>
-  <si>
-    <t>0 to 1</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Seminar in Databases</t>
-  </si>
-  <si>
     <t>S90</t>
   </si>
   <si>
     <t>TU</t>
   </si>
   <si>
-    <t>Arthur Lee</t>
-  </si>
-  <si>
     <t>Seminar in Artificial Intelligence</t>
   </si>
   <si>
+    <t>Seminar in Operating Systems</t>
+  </si>
+  <si>
+    <t>Seminar in Architecture</t>
+  </si>
+  <si>
     <t>Seminar in Computer Vision</t>
   </si>
   <si>
@@ -290,22 +338,25 @@
     <t>B206</t>
   </si>
   <si>
+    <t>PhD Internship Proj Off-Campus</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
     <t>Practicum in Teaching</t>
   </si>
   <si>
     <t>0 to 3</t>
   </si>
   <si>
-    <t>Dissertation Research on Campus</t>
-  </si>
-  <si>
-    <t>T91</t>
+    <t>Dissertation Pesrch on Campus</t>
   </si>
   <si>
     <t>0 to 9</t>
   </si>
   <si>
-    <t>T93</t>
+    <t>Dissertation off Campus Domest</t>
   </si>
 </sst>
 </file>
@@ -434,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -492,6 +543,21 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -755,7 +821,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>92229.0</v>
+        <v>52088.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -782,10 +848,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="9">
-        <v>0.4375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K2" s="9">
-        <v>0.4930555555555556</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>18</v>
@@ -796,7 +862,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10">
-        <v>92230.0</v>
+        <v>52089.0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -813,10 +879,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="13">
-        <v>0.5208333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K3" s="13">
-        <v>0.5763888888888888</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>18</v>
@@ -825,7 +891,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <v>92231.0</v>
+        <v>52090.0</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>13</v>
@@ -858,15 +924,15 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <v>92232.0</v>
+        <v>52091.0</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -889,13 +955,13 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <v>92233.0</v>
+        <v>52092.0</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>13</v>
@@ -904,7 +970,7 @@
         <v>214.0</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
@@ -926,7 +992,7 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>28</v>
@@ -934,7 +1000,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <v>92234.0</v>
+        <v>52093.0</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -948,22 +1014,22 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0.4375</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0.4756944444444444</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="M7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <v>92235.0</v>
+        <v>52094.0</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
@@ -985,24 +1051,24 @@
         <v>4.0</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8" s="13">
-        <v>0.5208333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K8" s="13">
-        <v>0.5763888888888888</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <v>92236.0</v>
+        <v>52095.0</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1016,22 +1082,22 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="13">
-        <v>0.6458333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K9" s="13">
-        <v>0.6840277777777778</v>
+        <v>0.5590277777777778</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="10">
-        <v>92339.0</v>
+        <v>52175.0</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>13</v>
@@ -1040,7 +1106,7 @@
         <v>216.0</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="12" t="s">
@@ -1056,21 +1122,21 @@
         <v>17</v>
       </c>
       <c r="J10" s="13">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="K10" s="13">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <v>92340.0</v>
+        <v>52176.0</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1084,7 +1150,7 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J11" s="13">
         <v>0.5833333333333334</v>
@@ -1093,13 +1159,13 @@
         <v>0.6215277777777778</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <v>92237.0</v>
+        <v>52145.0</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>13</v>
@@ -1108,7 +1174,7 @@
         <v>220.0</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
@@ -1121,24 +1187,24 @@
         <v>4.0</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J12" s="13">
-        <v>0.4375</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K12" s="13">
-        <v>0.4930555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10">
-        <v>92238.0</v>
+        <v>52144.0</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1152,35 +1218,33 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="13">
-        <v>0.5208333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K13" s="13">
-        <v>0.5590277777777778</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="10">
-        <v>92291.0</v>
+        <v>52096.0</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1255,7 @@
         <v>3.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J14" s="13">
         <v>0.6458333333333334</v>
@@ -1200,65 +1264,67 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21">
+        <v>56521.0</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21">
+        <v>306.0</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10">
-        <v>92322.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10">
-        <v>303.0</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="21">
         <v>90.0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="21">
         <v>3.0</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="13">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>40</v>
+      <c r="J15" s="24">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10">
-        <v>96938.0</v>
+        <v>56522.0</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="10">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1269,35 +1335,37 @@
         <v>3.0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J16" s="13">
-        <v>0.375</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K16" s="13">
-        <v>0.4305555555555556</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10">
-        <v>92268.0</v>
+        <v>52149.0</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10">
-        <v>310.0</v>
+        <v>312.0</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="12" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1376,7 @@
         <v>3.0</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17" s="13">
         <v>0.4375</v>
@@ -1317,15 +1385,15 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10">
-        <v>92342.0</v>
+        <v>52199.0</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>13</v>
@@ -1334,10 +1402,10 @@
         <v>316.0</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>16</v>
@@ -1358,15 +1426,15 @@
         <v>0.4305555555555556</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10">
-        <v>92321.0</v>
+        <v>52104.0</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>13</v>
@@ -1377,7 +1445,7 @@
       <c r="D19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1465,7 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>54</v>
@@ -1405,18 +1473,18 @@
     </row>
     <row r="20">
       <c r="A20" s="10">
-        <v>92281.0</v>
+        <v>52191.0</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="10">
-        <v>352.0</v>
+        <v>327.0</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1430,32 +1498,32 @@
         <v>17</v>
       </c>
       <c r="J20" s="13">
-        <v>0.5833333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K20" s="13">
-        <v>0.6388888888888888</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10">
-        <v>96966.0</v>
+        <v>56523.0</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="10">
-        <v>354.0</v>
+        <v>331.0</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1469,32 +1537,32 @@
         <v>17</v>
       </c>
       <c r="J21" s="13">
-        <v>0.6458333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K21" s="13">
-        <v>0.7013888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10">
-        <v>92239.0</v>
+        <v>56524.0</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="10">
-        <v>373.0</v>
+        <v>352.0</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="E22" s="25"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -1505,24 +1573,24 @@
         <v>3.0</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J22" s="13">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K22" s="13">
-        <v>0.7638888888888888</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10">
-        <v>92341.0</v>
+        <v>52148.0</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>13</v>
@@ -1531,10 +1599,10 @@
         <v>416.0</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>16</v>
@@ -1549,43 +1617,45 @@
         <v>17</v>
       </c>
       <c r="J23" s="13">
-        <v>0.5833333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K23" s="13">
-        <v>0.6388888888888888</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10">
-        <v>92265.0</v>
+        <v>52109.0</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="10">
-        <v>487.0</v>
+        <v>475.0</v>
       </c>
       <c r="D24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="20"/>
       <c r="F24" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>67</v>
+      <c r="H24" s="10">
+        <v>3.0</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="13">
         <v>0.041666666666666664</v>
@@ -1594,37 +1664,39 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10">
-        <v>92263.0</v>
+        <v>52173.0</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="10">
-        <v>487.0</v>
+        <v>475.0</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="20"/>
       <c r="F25" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>67</v>
+      <c r="H25" s="10">
+        <v>3.0</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="13">
         <v>0.041666666666666664</v>
@@ -1633,37 +1705,39 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10">
-        <v>97043.0</v>
+        <v>52174.0</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="10">
-        <v>487.0</v>
+        <v>475.0</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="20"/>
       <c r="F26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>67</v>
+      <c r="H26" s="10">
+        <v>3.0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="13">
         <v>0.041666666666666664</v>
@@ -1672,182 +1746,190 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10">
-        <v>92386.0</v>
+        <v>52196.0</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="10">
-        <v>534.0</v>
+        <v>475.0</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="10">
-        <v>90.0</v>
       </c>
       <c r="H27" s="10">
         <v>3.0</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="J27" s="13">
-        <v>0.375</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K27" s="13">
-        <v>0.4305555555555556</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10">
-        <v>92471.0</v>
+        <v>57025.0</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="10">
-        <v>537.0</v>
+        <v>475.0</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="10">
-        <v>90.0</v>
+        <v>65</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="H28" s="10">
         <v>3.0</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J28" s="13">
-        <v>0.6458333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K28" s="13">
-        <v>0.7013888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10">
-        <v>96969.0</v>
+        <v>57026.0</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="10">
-        <v>538.0</v>
+        <v>475.0</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="10">
-        <v>90.0</v>
+        <v>65</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="H29" s="10">
         <v>3.0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="J29" s="13">
-        <v>0.7083333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K29" s="13">
-        <v>0.7638888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10">
-        <v>96970.0</v>
+        <v>57027.0</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="10">
-        <v>541.0</v>
+        <v>475.0</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="10">
-        <v>90.0</v>
       </c>
       <c r="H30" s="10">
         <v>3.0</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J30" s="13">
-        <v>0.5833333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K30" s="13">
-        <v>0.6388888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10">
-        <v>92530.0</v>
+        <v>52097.0</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="10">
-        <v>599.0</v>
+        <v>487.0</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="12" t="s">
         <v>65</v>
       </c>
@@ -1858,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="13">
         <v>0.041666666666666664</v>
@@ -1867,26 +1949,26 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10">
-        <v>97340.0</v>
+        <v>52102.0</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="10">
-        <v>599.0</v>
+        <v>487.0</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="12" t="s">
         <v>65</v>
       </c>
@@ -1897,7 +1979,7 @@
         <v>77</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32" s="13">
         <v>0.041666666666666664</v>
@@ -1906,361 +1988,1882 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10">
-        <v>97249.0</v>
+        <v>52103.0</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="10">
-        <v>600.0</v>
+        <v>487.0</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E33" s="25"/>
       <c r="F33" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="J33" s="13">
-        <v>0.5833333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K33" s="13">
-        <v>0.625</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10">
-        <v>92292.0</v>
+        <v>52107.0</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="10">
-        <v>644.0</v>
+        <v>487.0</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E34" s="25"/>
       <c r="F34" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1.0</v>
+        <v>79</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J34" s="13">
-        <v>0.7708333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K34" s="13">
-        <v>0.8263888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10">
-        <v>92368.0</v>
+        <v>56981.0</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="10">
-        <v>646.0</v>
+        <v>487.0</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E35" s="25"/>
       <c r="F35" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1.0</v>
+        <v>72</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J35" s="13">
-        <v>0.7708333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K35" s="13">
-        <v>0.8263888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10">
-        <v>96943.0</v>
+        <v>57069.0</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="10">
-        <v>656.0</v>
+        <v>487.0</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E36" s="25"/>
       <c r="F36" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1.0</v>
+        <v>73</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J36" s="13">
-        <v>0.7708333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K36" s="13">
-        <v>0.8263888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10">
-        <v>92240.0</v>
+        <v>57085.0</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="10">
-        <v>658.0</v>
+        <v>487.0</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E37" s="25"/>
       <c r="F37" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="10">
-        <v>1.0</v>
+        <v>74</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J37" s="13">
-        <v>0.7708333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K37" s="13">
-        <v>0.8263888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="10">
-        <v>92355.0</v>
+        <v>56525.0</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="10">
-        <v>698.0</v>
+        <v>508.0</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E38" s="25"/>
       <c r="F38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3.0</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="J38" s="13">
-        <v>0.5416666666666666</v>
+        <v>0.4375</v>
       </c>
       <c r="K38" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="10">
-        <v>92392.0</v>
+        <v>52355.0</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="10">
-        <v>699.0</v>
+        <v>512.0</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="E39" s="25"/>
       <c r="F39" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3.0</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="J39" s="13">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K39" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="10">
-        <v>92331.0</v>
+        <v>52044.0</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="10">
-        <v>699.0</v>
+        <v>522.0</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="E40" s="25"/>
       <c r="F40" s="12" t="s">
         <v>65</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>96</v>
+        <v>70</v>
+      </c>
+      <c r="H40" s="10">
+        <v>3.0</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="13">
-        <v>0.5416666666666666</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K40" s="13">
         <v>0.041666666666666664</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="10">
-        <v>92332.0</v>
+        <v>52047.0</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="10">
+        <v>522.0</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>52048.0</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="10">
+        <v>523.0</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>52049.0</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="10">
+        <v>523.0</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>52052.0</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="10">
+        <v>523.0</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>52053.0</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="10">
+        <v>524.0</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>52054.0</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="10">
+        <v>524.0</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>52057.0</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="10">
+        <v>524.0</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K47" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>52146.0</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10">
+        <v>540.0</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>52058.0</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="10">
+        <v>593.0</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
+        <v>52059.0</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="10">
+        <v>593.0</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>52060.0</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="10">
+        <v>593.0</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K51" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>52061.0</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="10">
+        <v>593.0</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K52" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>52062.0</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="10">
+        <v>593.0</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K53" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>52065.0</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="10">
+        <v>596.0</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K54" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>52068.0</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="10">
+        <v>596.0</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K55" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>52069.0</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="10">
+        <v>599.0</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>52070.0</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="10">
+        <v>599.0</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K57" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>52071.0</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="10">
+        <v>599.0</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K58" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>52073.0</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="10">
+        <v>599.0</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>56526.0</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="10">
+        <v>600.0</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="13">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K60" s="13">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>52112.0</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="10">
+        <v>644.0</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K61" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
+        <v>52201.0</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="10">
+        <v>646.0</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K62" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>52113.0</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="10">
+        <v>649.0</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J63" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K63" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>56537.0</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="10">
+        <v>650.0</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>52257.0</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="10">
+        <v>656.0</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K65" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>52202.0</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="10">
+        <v>658.0</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="25"/>
+      <c r="F66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K66" s="13">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>52075.0</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="10">
+        <v>696.0</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K67" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>52078.0</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="10">
+        <v>696.0</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>52098.0</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="10">
+        <v>698.0</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K69" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>52099.0</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="10">
+        <v>698.0</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K70" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>52100.0</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="10">
+        <v>698.0</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K71" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>52101.0</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="10">
+        <v>698.0</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K72" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>52079.0</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="10">
         <v>699.0</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="13">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="K41" s="13">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="L41" s="12" t="s">
+      <c r="D73" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K73" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
+        <v>52080.0</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="10">
+        <v>699.0</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K74" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>52081.0</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="10">
+        <v>699.0</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K75" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="12" t="s">
-        <v>28</v>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>52082.0</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="10">
+        <v>699.0</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K76" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>57074.0</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="10">
+        <v>699.0</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K77" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>52083.0</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K78" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>52084.0</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>52087.0</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
